--- a/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00002.xlsx
+++ b/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GI03FLMB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="4420" windowWidth="25180" windowHeight="13860"/>
+    <workbookView xWindow="9765" yWindow="4425" windowWidth="25185" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,17 +22,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="104">
   <si>
     <t>Ref Des</t>
   </si>
@@ -257,52 +257,7 @@
     <t>Main Controller</t>
   </si>
   <si>
-    <t>GI03FLMB-RIS01-01-FLORTD000</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS01-02-PHSENF000</t>
-  </si>
-  <si>
     <t>GI03FLMB-RIS01-03-DOSTAD000</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-01-ADCPSL007</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-03-CTDMOG060</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-04-CTDMOG061</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-05-CTDMOG062</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-06-CTDMOG063</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-07-CTDMOG064</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-08-CTDMOG065</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-09-CTDMOG066</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-10-CTDMOG067</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-11-CTDMOG068</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-12-CTDMOH069</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-13-CTDMOH070</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS02-14-CTDMOH071</t>
   </si>
   <si>
     <r>
@@ -313,6 +268,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -326,224 +282,82 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>GI03FLMA-RIS02-15-CTDMOH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-15-CTDMOH000</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-16-CTDMOH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>700</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-16-CTDMOH700</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-17-CTDMOH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-17-CTDMOH400</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-18-CTDMOH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-18-CTDMOH100</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-19-VELPTB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-19-VELPTB000</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-20-VELPTB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>700</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-20-VELPTB700</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-21-VELPTB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-21-VELPTB400</t>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMA-RIS02-22-VELPTB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-22-VELPTB100</t>
-  </si>
-  <si>
-    <r>
-      <t>GI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03FLMA-RIS01-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SIOENG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GI03FLMB-RI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02-00-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SIOENG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
+    <t>GI03FLMB-RIS01-05-FLORTD000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-04-PHSENF000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIM01-02-ADCPSL007</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIM01-02-CTDMOG000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-FMS01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-FMM01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG060</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG061</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG062</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG063</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG064</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG065</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG066</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG067</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOG068</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOH071</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOH070</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-02-CTDMOH069</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH700</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH400</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH100</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB700</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB400</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB100</t>
   </si>
 </sst>
 </file>
@@ -551,12 +365,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,27 +545,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,12 +593,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -882,7 +696,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="192">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -946,14 +760,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1075,8 +889,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1102,13 +917,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1148,9 +963,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,7 +989,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,7 +1004,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,10 +1019,10 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,7 +1049,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1250,7 +1060,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="192">
+  <cellStyles count="193">
     <cellStyle name="Comma 2" xfId="63"/>
     <cellStyle name="Comma 2 2" xfId="64"/>
     <cellStyle name="Comma 2 2 2" xfId="65"/>
@@ -1339,6 +1149,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="16"/>
     <cellStyle name="Normal 11" xfId="17"/>
+    <cellStyle name="Normal 11 2" xfId="192"/>
     <cellStyle name="Normal 12" xfId="18"/>
     <cellStyle name="Normal 13" xfId="19"/>
     <cellStyle name="Normal 14" xfId="58"/>
@@ -1450,12 +1261,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1761,97 +1575,97 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="7"/>
+    <col min="7" max="7" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="37" customFormat="1" ht="36">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" s="35" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="40" customFormat="1" ht="13">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="41">
-        <v>2</v>
-      </c>
-      <c r="D2" s="42">
+      <c r="B2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="39">
+        <v>2</v>
+      </c>
+      <c r="D2" s="40">
         <v>42236</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="41">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="39">
         <v>2812</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39">
+      <c r="J2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>59.71823333333333</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="37">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-39.353616666666667</v>
       </c>
@@ -1869,28 +1683,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="8" customWidth="1"/>
-    <col min="8" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="8" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="2"/>
+    <col min="13" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="31.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1735,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1934,11 +1750,11 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="8">
@@ -1950,7 +1766,7 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <v>1.7850000000000001E-6</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -1965,17 +1781,17 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="34">
-        <v>2</v>
-      </c>
-      <c r="D4" s="35">
+        <v>78</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="33">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34">
         <v>1299</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1994,17 +1810,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="34">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35">
+        <v>78</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34">
         <v>1299</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2021,17 +1837,17 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="34">
-        <v>2</v>
-      </c>
-      <c r="D6" s="35">
+        <v>78</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2</v>
+      </c>
+      <c r="D6" s="34">
         <v>1299</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2048,17 +1864,17 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="34">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35">
+        <v>78</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34">
         <v>1299</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2075,17 +1891,17 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="34">
-        <v>2</v>
-      </c>
-      <c r="D8" s="35">
+        <v>78</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34">
         <v>1299</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2102,23 +1918,23 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="34">
-        <v>2</v>
-      </c>
-      <c r="D9" s="35">
+        <v>78</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34">
         <v>1299</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="53">
         <v>124</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -2131,23 +1947,23 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="34">
-        <v>2</v>
-      </c>
-      <c r="D10" s="35">
+        <v>78</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
         <v>1299</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>700</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -2160,23 +1976,23 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2</v>
-      </c>
-      <c r="D11" s="35">
+        <v>78</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34">
         <v>1299</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="53">
         <v>1.0760000000000001</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -2188,24 +2004,27 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="34">
-        <v>2</v>
-      </c>
-      <c r="D12" s="35">
+        <v>78</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2</v>
+      </c>
+      <c r="D12" s="34">
         <v>1299</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>3.9E-2</v>
       </c>
       <c r="G12" s="19" t="s">
@@ -2217,12 +2036,15 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="19"/>
@@ -2232,12 +2054,15 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="N13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="8">
@@ -2264,17 +2089,17 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="34">
-        <v>2</v>
-      </c>
-      <c r="D15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2291,17 +2116,17 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2</v>
-      </c>
-      <c r="D16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2318,17 +2143,17 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="34">
-        <v>2</v>
-      </c>
-      <c r="D17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2345,17 +2170,17 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="34">
-        <v>2</v>
-      </c>
-      <c r="D18" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2371,18 +2196,19 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="34">
-        <v>2</v>
-      </c>
-      <c r="D19" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2399,23 +2225,23 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="34">
-        <v>2</v>
-      </c>
-      <c r="D20" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="33">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>35</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -2428,11 +2254,11 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="19"/>
@@ -2443,11 +2269,11 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="8">
@@ -2475,17 +2301,17 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="34">
-        <v>2</v>
-      </c>
-      <c r="D23" s="35">
+        <v>76</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2</v>
+      </c>
+      <c r="D23" s="34">
         <v>466</v>
       </c>
       <c r="E23" s="23" t="s">
@@ -2505,17 +2331,17 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="34">
-        <v>2</v>
-      </c>
-      <c r="D24" s="35">
+        <v>76</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2</v>
+      </c>
+      <c r="D24" s="34">
         <v>466</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -2532,11 +2358,11 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="24"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
@@ -2547,11 +2373,11 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="8">
@@ -2579,17 +2405,17 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="34">
-        <v>2</v>
-      </c>
-      <c r="D27" s="35">
+        <v>80</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2</v>
+      </c>
+      <c r="D27" s="34">
         <v>23381</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2607,20 +2433,20 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="34">
-        <v>2</v>
-      </c>
-      <c r="D28" s="35">
+        <v>80</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2</v>
+      </c>
+      <c r="D28" s="34">
         <v>23381</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="8">
@@ -2635,20 +2461,20 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="34">
-        <v>2</v>
-      </c>
-      <c r="D29" s="35">
+        <v>80</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2</v>
+      </c>
+      <c r="D29" s="34">
         <v>23381</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="8">
@@ -2663,17 +2489,17 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="34">
-        <v>2</v>
-      </c>
-      <c r="D30" s="35">
+        <v>80</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34">
         <v>23381</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2690,17 +2516,17 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="34">
-        <v>2</v>
-      </c>
-      <c r="D31" s="35">
+        <v>80</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2</v>
+      </c>
+      <c r="D31" s="34">
         <v>23381</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -2717,17 +2543,17 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="34">
-        <v>2</v>
-      </c>
-      <c r="D32" s="35">
+        <v>80</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2</v>
+      </c>
+      <c r="D32" s="34">
         <v>23381</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -2743,18 +2569,19 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="34">
-        <v>2</v>
-      </c>
-      <c r="D33" s="35">
+        <v>80</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="34">
         <v>23381</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -2770,18 +2597,19 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="35">
+        <v>80</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="33">
+        <v>2</v>
+      </c>
+      <c r="D34" s="34">
         <v>23381</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2798,11 +2626,11 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="22"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="19"/>
@@ -2813,11 +2641,11 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="8">
@@ -2829,7 +2657,7 @@
       <c r="E36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="49">
         <v>1450</v>
       </c>
       <c r="G36" s="19" t="s">
@@ -2844,17 +2672,17 @@
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="34">
-        <v>2</v>
-      </c>
-      <c r="D37" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -2872,17 +2700,17 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="34">
-        <v>2</v>
-      </c>
-      <c r="D38" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -2900,20 +2728,20 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="34">
-        <v>2</v>
-      </c>
-      <c r="D39" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="49" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="6">
@@ -2927,11 +2755,11 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="22"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="19"/>
@@ -2942,11 +2770,11 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="8">
@@ -2958,7 +2786,7 @@
       <c r="E41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="49">
         <v>1450</v>
       </c>
       <c r="G41" s="19" t="s">
@@ -2973,17 +2801,17 @@
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="34">
-        <v>2</v>
-      </c>
-      <c r="D42" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -3001,17 +2829,17 @@
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2</v>
-      </c>
-      <c r="D43" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2</v>
+      </c>
+      <c r="D43" s="34" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -3029,20 +2857,20 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="34">
-        <v>2</v>
-      </c>
-      <c r="D44" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="49" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="6">
@@ -3056,11 +2884,11 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="19"/>
@@ -3071,11 +2899,11 @@
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="8">
@@ -3087,7 +2915,7 @@
       <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="49">
         <v>1450</v>
       </c>
       <c r="G46" s="19" t="s">
@@ -3102,17 +2930,17 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="34">
-        <v>2</v>
-      </c>
-      <c r="D47" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -3130,17 +2958,17 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="34">
-        <v>2</v>
-      </c>
-      <c r="D48" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2</v>
+      </c>
+      <c r="D48" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -3158,23 +2986,23 @@
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="34">
-        <v>2</v>
-      </c>
-      <c r="D49" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2</v>
+      </c>
+      <c r="D49" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="51">
         <v>62</v>
       </c>
       <c r="G49" s="19"/>
@@ -3185,11 +3013,11 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="19"/>
@@ -3200,11 +3028,11 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="8">
@@ -3216,7 +3044,7 @@
       <c r="E51" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="49">
         <v>1450</v>
       </c>
       <c r="G51" s="19" t="s">
@@ -3231,17 +3059,17 @@
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="34">
-        <v>2</v>
-      </c>
-      <c r="D52" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -3259,17 +3087,17 @@
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="34">
-        <v>2</v>
-      </c>
-      <c r="D53" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="33">
+        <v>2</v>
+      </c>
+      <c r="D53" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3287,23 +3115,23 @@
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="34">
-        <v>2</v>
-      </c>
-      <c r="D54" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="33">
+        <v>2</v>
+      </c>
+      <c r="D54" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="53">
+      <c r="F54" s="51">
         <v>63</v>
       </c>
       <c r="G54" s="19"/>
@@ -3314,11 +3142,11 @@
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="19"/>
@@ -3329,11 +3157,11 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="8">
@@ -3345,7 +3173,7 @@
       <c r="E56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="49">
         <v>1450</v>
       </c>
       <c r="G56" s="19" t="s">
@@ -3360,17 +3188,17 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="34">
-        <v>2</v>
-      </c>
-      <c r="D57" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="33">
+        <v>2</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -3388,17 +3216,17 @@
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="34">
-        <v>2</v>
-      </c>
-      <c r="D58" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="33">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -3416,23 +3244,23 @@
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="34">
-        <v>2</v>
-      </c>
-      <c r="D59" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2</v>
+      </c>
+      <c r="D59" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="53">
+      <c r="F59" s="51">
         <v>64</v>
       </c>
       <c r="G59" s="19"/>
@@ -3443,11 +3271,11 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="19"/>
@@ -3458,11 +3286,11 @@
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="8">
@@ -3474,7 +3302,7 @@
       <c r="E61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="49">
         <v>1450</v>
       </c>
       <c r="G61" s="19" t="s">
@@ -3488,18 +3316,19 @@
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="O61" s="20"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="34">
-        <v>2</v>
-      </c>
-      <c r="D62" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2</v>
+      </c>
+      <c r="D62" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -3516,18 +3345,19 @@
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62" s="20"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="34">
-        <v>2</v>
-      </c>
-      <c r="D63" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2</v>
+      </c>
+      <c r="D63" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -3545,23 +3375,23 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="34">
-        <v>2</v>
-      </c>
-      <c r="D64" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="33">
+        <v>2</v>
+      </c>
+      <c r="D64" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="51">
         <v>65</v>
       </c>
       <c r="G64" s="19"/>
@@ -3572,11 +3402,11 @@
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="22"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="19"/>
@@ -3587,11 +3417,11 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="8">
@@ -3603,7 +3433,7 @@
       <c r="E66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="49">
         <v>1450</v>
       </c>
       <c r="G66" s="19" t="s">
@@ -3618,17 +3448,17 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="34">
-        <v>2</v>
-      </c>
-      <c r="D67" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="33">
+        <v>2</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -3646,17 +3476,17 @@
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="34">
-        <v>2</v>
-      </c>
-      <c r="D68" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2</v>
+      </c>
+      <c r="D68" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -3674,23 +3504,23 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="34">
-        <v>2</v>
-      </c>
-      <c r="D69" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="53">
+      <c r="F69" s="51">
         <v>66</v>
       </c>
       <c r="G69" s="19"/>
@@ -3701,11 +3531,11 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="22"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="19"/>
@@ -3716,11 +3546,11 @@
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C71" s="8">
@@ -3732,7 +3562,7 @@
       <c r="E71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="51">
+      <c r="F71" s="49">
         <v>1450</v>
       </c>
       <c r="G71" s="19" t="s">
@@ -3747,17 +3577,17 @@
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="34">
-        <v>2</v>
-      </c>
-      <c r="D72" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="33">
+        <v>2</v>
+      </c>
+      <c r="D72" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E72" s="6" t="s">
@@ -3775,17 +3605,17 @@
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="34">
-        <v>2</v>
-      </c>
-      <c r="D73" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="33">
+        <v>2</v>
+      </c>
+      <c r="D73" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -3803,23 +3633,23 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="34">
-        <v>2</v>
-      </c>
-      <c r="D74" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="33">
+        <v>2</v>
+      </c>
+      <c r="D74" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="51">
         <v>67</v>
       </c>
       <c r="G74" s="19"/>
@@ -3830,11 +3660,11 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="19"/>
@@ -3845,11 +3675,11 @@
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C76" s="8">
@@ -3861,7 +3691,7 @@
       <c r="E76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="51">
+      <c r="F76" s="49">
         <v>1450</v>
       </c>
       <c r="G76" s="19" t="s">
@@ -3876,17 +3706,17 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="34">
-        <v>2</v>
-      </c>
-      <c r="D77" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="33">
+        <v>2</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E77" s="6" t="s">
@@ -3904,17 +3734,17 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="34">
-        <v>2</v>
-      </c>
-      <c r="D78" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="33">
+        <v>2</v>
+      </c>
+      <c r="D78" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -3932,23 +3762,23 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="34">
-        <v>2</v>
-      </c>
-      <c r="D79" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="33">
+        <v>2</v>
+      </c>
+      <c r="D79" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="53">
+      <c r="F79" s="51">
         <v>68</v>
       </c>
       <c r="G79" s="19"/>
@@ -3959,11 +3789,11 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="19"/>
@@ -3974,48 +3804,48 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1">
-      <c r="A81" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="33" t="s">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C81" s="8">
         <v>2</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="61">
+      <c r="F81" s="58">
         <v>5076</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="26">
+      <c r="H81" s="25">
         <v>748</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="34">
-        <v>2</v>
-      </c>
-      <c r="D82" s="35" t="s">
+      <c r="I81" s="26"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2</v>
+      </c>
+      <c r="D82" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E82" s="6" t="s">
@@ -4033,17 +3863,17 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="34">
-        <v>2</v>
-      </c>
-      <c r="D83" s="35" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="33">
+        <v>2</v>
+      </c>
+      <c r="D83" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -4061,23 +3891,23 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="34">
-        <v>2</v>
-      </c>
-      <c r="D84" s="35" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="33">
+        <v>2</v>
+      </c>
+      <c r="D84" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="52" t="s">
+      <c r="E84" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="51">
         <v>69</v>
       </c>
       <c r="G84" s="19"/>
@@ -4088,11 +3918,11 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="28"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="27"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="19"/>
@@ -4103,11 +3933,11 @@
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C86" s="8">
@@ -4119,7 +3949,7 @@
       <c r="E86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="61">
+      <c r="F86" s="58">
         <v>5076</v>
       </c>
       <c r="G86" s="19" t="s">
@@ -4134,17 +3964,17 @@
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="34">
-        <v>2</v>
-      </c>
-      <c r="D87" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="33">
+        <v>2</v>
+      </c>
+      <c r="D87" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E87" s="6" t="s">
@@ -4162,17 +3992,17 @@
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="34">
-        <v>2</v>
-      </c>
-      <c r="D88" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="33">
+        <v>2</v>
+      </c>
+      <c r="D88" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -4190,23 +4020,23 @@
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="34">
-        <v>2</v>
-      </c>
-      <c r="D89" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="33">
+        <v>2</v>
+      </c>
+      <c r="D89" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F89" s="53">
+      <c r="F89" s="51">
         <v>70</v>
       </c>
       <c r="G89" s="19"/>
@@ -4217,11 +4047,11 @@
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="19"/>
@@ -4232,11 +4062,11 @@
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="8">
@@ -4248,7 +4078,7 @@
       <c r="E91" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="61">
+      <c r="F91" s="58">
         <v>5076</v>
       </c>
       <c r="G91" s="19" t="s">
@@ -4263,17 +4093,17 @@
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="34">
-        <v>2</v>
-      </c>
-      <c r="D92" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="33">
+        <v>2</v>
+      </c>
+      <c r="D92" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E92" s="6" t="s">
@@ -4291,17 +4121,17 @@
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="34">
-        <v>2</v>
-      </c>
-      <c r="D93" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="33">
+        <v>2</v>
+      </c>
+      <c r="D93" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -4319,23 +4149,23 @@
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="34">
-        <v>2</v>
-      </c>
-      <c r="D94" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="33">
+        <v>2</v>
+      </c>
+      <c r="D94" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="52" t="s">
+      <c r="E94" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="53">
+      <c r="F94" s="51">
         <v>71</v>
       </c>
       <c r="G94" s="19"/>
@@ -4346,11 +4176,11 @@
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="19"/>
@@ -4361,48 +4191,48 @@
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1">
-      <c r="A96" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="33" t="s">
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C96" s="8">
         <v>2</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="58">
         <v>5076</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="26">
+      <c r="H96" s="25">
         <v>1806</v>
       </c>
-      <c r="I96" s="27"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C97" s="34">
-        <v>2</v>
-      </c>
-      <c r="D97" s="35" t="s">
+      <c r="I96" s="26"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="33">
+        <v>2</v>
+      </c>
+      <c r="D97" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E97" s="6" t="s">
@@ -4420,17 +4250,17 @@
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="34">
-        <v>2</v>
-      </c>
-      <c r="D98" s="35" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="33">
+        <v>2</v>
+      </c>
+      <c r="D98" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -4448,11 +4278,11 @@
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="28"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="27"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="19"/>
@@ -4463,11 +4293,11 @@
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" s="33" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="8">
@@ -4479,7 +4309,7 @@
       <c r="E100" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="61">
+      <c r="F100" s="58">
         <v>5076</v>
       </c>
       <c r="G100" s="19" t="s">
@@ -4494,17 +4324,17 @@
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="34">
-        <v>2</v>
-      </c>
-      <c r="D101" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="33">
+        <v>2</v>
+      </c>
+      <c r="D101" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E101" s="6" t="s">
@@ -4522,17 +4352,17 @@
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="34">
-        <v>2</v>
-      </c>
-      <c r="D102" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="33">
+        <v>2</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -4550,11 +4380,11 @@
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="22"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="19"/>
@@ -4565,11 +4395,11 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="33" t="s">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="8">
@@ -4581,7 +4411,7 @@
       <c r="E104" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F104" s="61">
+      <c r="F104" s="58">
         <v>5076</v>
       </c>
       <c r="G104" s="19" t="s">
@@ -4596,17 +4426,17 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="34">
-        <v>2</v>
-      </c>
-      <c r="D105" s="35" t="s">
+      <c r="B105" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="33">
+        <v>2</v>
+      </c>
+      <c r="D105" s="34" t="s">
         <v>64</v>
       </c>
       <c r="E105" s="6" t="s">
@@ -4624,17 +4454,17 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="34">
-        <v>2</v>
-      </c>
-      <c r="D106" s="35" t="s">
+      <c r="B106" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="33">
+        <v>2</v>
+      </c>
+      <c r="D106" s="34" t="s">
         <v>64</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -4652,11 +4482,11 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="28"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="19"/>
@@ -4667,11 +4497,11 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="20" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="8">
@@ -4683,7 +4513,7 @@
       <c r="E108" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F108" s="61">
+      <c r="F108" s="58">
         <v>5076</v>
       </c>
       <c r="G108" s="19" t="s">
@@ -4698,17 +4528,17 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="34">
-        <v>2</v>
-      </c>
-      <c r="D109" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="33">
+        <v>2</v>
+      </c>
+      <c r="D109" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E109" s="6" t="s">
@@ -4726,17 +4556,17 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B110" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C110" s="34">
-        <v>2</v>
-      </c>
-      <c r="D110" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="33">
+        <v>2</v>
+      </c>
+      <c r="D110" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -4754,17 +4584,17 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="34"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="33"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="33" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C112" s="8">
@@ -4787,17 +4617,17 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="34">
-        <v>2</v>
-      </c>
-      <c r="D113" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="33">
+        <v>2</v>
+      </c>
+      <c r="D113" s="33" t="s">
         <v>66</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -4809,11 +4639,11 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="35"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="19"/>
@@ -4824,11 +4654,11 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="33" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C115" s="8">
@@ -4851,17 +4681,17 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116" s="34">
-        <v>2</v>
-      </c>
-      <c r="D116" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="33">
+        <v>2</v>
+      </c>
+      <c r="D116" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -4873,11 +4703,11 @@
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="22"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="19"/>
@@ -4888,11 +4718,11 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
     </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" s="33" t="s">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C118" s="8">
@@ -4915,17 +4745,17 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C119" s="34">
-        <v>2</v>
-      </c>
-      <c r="D119" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="33">
+        <v>2</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -4937,11 +4767,11 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="22"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="35"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="19"/>
@@ -4952,11 +4782,11 @@
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="33" t="s">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C121" s="8">
@@ -4979,17 +4809,17 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="34">
-        <v>2</v>
-      </c>
-      <c r="D122" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="33">
+        <v>2</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>69</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -5001,11 +4831,11 @@
       </c>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="19"/>
@@ -5016,60 +4846,60 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="33" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C124" s="8">
         <v>2</v>
       </c>
-      <c r="D124" s="60">
+      <c r="D124" s="57">
         <v>14874</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="56" t="s">
+      <c r="G124" s="54" t="s">
         <v>74</v>
       </c>
       <c r="H124" s="18"/>
-      <c r="I124" s="50"/>
+      <c r="I124" s="48"/>
       <c r="J124" s="21"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:13" s="50" customFormat="1">
-      <c r="A126" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="50">
-        <v>2</v>
-      </c>
-      <c r="D126" s="56">
+    <row r="126" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="48">
+        <v>2</v>
+      </c>
+      <c r="D126" s="54">
         <v>14876</v>
       </c>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56" t="s">
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="59"/>
-      <c r="K126" s="56"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -5084,14 +4914,13 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="18"/>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
-      <c r="G128" s="19"/>
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
@@ -5099,14 +4928,12 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
       <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
       <c r="F129" s="18"/>
-      <c r="G129" s="19"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
@@ -5114,12 +4941,11 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
       <c r="F130" s="18"/>
       <c r="G130" s="19"/>
       <c r="H130" s="18"/>
@@ -5129,12 +4955,11 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
       <c r="F131" s="18"/>
       <c r="G131" s="19"/>
       <c r="H131" s="18"/>
@@ -5147,10 +4972,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00002.xlsx
+++ b/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="4425" windowWidth="25185" windowHeight="13860"/>
+    <workbookView xWindow="9765" yWindow="4425" windowWidth="25185" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1363,7 +1363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1685,9 +1685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1999,8 +1999,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="8"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -2031,7 +2030,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -2286,7 +2285,6 @@
         <v>6</v>
       </c>
       <c r="F22" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G22" s="19" t="s">
@@ -2318,7 +2316,6 @@
         <v>7</v>
       </c>
       <c r="F23" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G23" s="19" t="s">
@@ -2390,7 +2387,6 @@
         <v>6</v>
       </c>
       <c r="F26" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -2422,7 +2418,6 @@
         <v>7</v>
       </c>
       <c r="F27" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G27" s="19"/>
@@ -2450,7 +2445,6 @@
         <v>8</v>
       </c>
       <c r="F28" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G28" s="19"/>
@@ -2478,7 +2472,6 @@
         <v>9</v>
       </c>
       <c r="F29" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G29" s="19"/>
@@ -2689,7 +2682,6 @@
         <v>6</v>
       </c>
       <c r="F37" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G37" s="19"/>
@@ -2717,7 +2709,6 @@
         <v>7</v>
       </c>
       <c r="F38" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G38" s="19"/>
@@ -2818,7 +2809,6 @@
         <v>6</v>
       </c>
       <c r="F42" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G42" s="19"/>
@@ -2846,7 +2836,6 @@
         <v>7</v>
       </c>
       <c r="F43" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G43" s="19"/>
@@ -2947,7 +2936,6 @@
         <v>6</v>
       </c>
       <c r="F47" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G47" s="19"/>
@@ -2975,7 +2963,6 @@
         <v>7</v>
       </c>
       <c r="F48" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G48" s="19"/>
@@ -3076,7 +3063,6 @@
         <v>6</v>
       </c>
       <c r="F52" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G52" s="19"/>
@@ -3104,7 +3090,6 @@
         <v>7</v>
       </c>
       <c r="F53" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G53" s="19"/>
@@ -3205,7 +3190,6 @@
         <v>6</v>
       </c>
       <c r="F57" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G57" s="19"/>
@@ -3233,7 +3217,6 @@
         <v>7</v>
       </c>
       <c r="F58" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G58" s="19"/>
@@ -3335,7 +3318,6 @@
         <v>6</v>
       </c>
       <c r="F62" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G62" s="19"/>
@@ -3364,7 +3346,6 @@
         <v>7</v>
       </c>
       <c r="F63" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G63" s="19"/>
@@ -3465,7 +3446,6 @@
         <v>6</v>
       </c>
       <c r="F67" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G67" s="19"/>
@@ -3493,7 +3473,6 @@
         <v>7</v>
       </c>
       <c r="F68" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G68" s="19"/>
@@ -3594,7 +3573,6 @@
         <v>6</v>
       </c>
       <c r="F72" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G72" s="19"/>
@@ -3622,7 +3600,6 @@
         <v>7</v>
       </c>
       <c r="F73" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G73" s="19"/>
@@ -3723,7 +3700,6 @@
         <v>6</v>
       </c>
       <c r="F77" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G77" s="19"/>
@@ -3751,7 +3727,6 @@
         <v>7</v>
       </c>
       <c r="F78" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G78" s="19"/>
@@ -3852,7 +3827,6 @@
         <v>6</v>
       </c>
       <c r="F82" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G82" s="19"/>
@@ -3880,7 +3854,6 @@
         <v>7</v>
       </c>
       <c r="F83" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G83" s="19"/>
@@ -3981,7 +3954,6 @@
         <v>6</v>
       </c>
       <c r="F87" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G87" s="19"/>
@@ -4009,7 +3981,6 @@
         <v>7</v>
       </c>
       <c r="F88" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G88" s="19"/>
@@ -4110,7 +4081,6 @@
         <v>6</v>
       </c>
       <c r="F92" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G92" s="19"/>
@@ -4138,7 +4108,6 @@
         <v>7</v>
       </c>
       <c r="F93" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G93" s="19"/>
@@ -4239,7 +4208,6 @@
         <v>6</v>
       </c>
       <c r="F97" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G97" s="19"/>
@@ -4267,7 +4235,6 @@
         <v>7</v>
       </c>
       <c r="F98" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G98" s="19"/>
@@ -4341,7 +4308,6 @@
         <v>6</v>
       </c>
       <c r="F101" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G101" s="19"/>
@@ -4369,7 +4335,6 @@
         <v>7</v>
       </c>
       <c r="F102" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G102" s="19"/>
@@ -4443,7 +4408,6 @@
         <v>6</v>
       </c>
       <c r="F105" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G105" s="19"/>
@@ -4471,7 +4435,6 @@
         <v>7</v>
       </c>
       <c r="F106" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G106" s="19"/>
@@ -4545,7 +4508,6 @@
         <v>6</v>
       </c>
       <c r="F109" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G109" s="19"/>
@@ -4573,7 +4535,6 @@
         <v>7</v>
       </c>
       <c r="F110" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G110" s="19"/>
@@ -4607,7 +4568,6 @@
         <v>6</v>
       </c>
       <c r="F112" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G112" s="19" t="s">
@@ -4634,7 +4594,6 @@
         <v>7</v>
       </c>
       <c r="F113" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G113" s="2"/>
@@ -4671,7 +4630,6 @@
         <v>6</v>
       </c>
       <c r="F115" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G115" s="19" t="s">
@@ -4698,7 +4656,6 @@
         <v>7</v>
       </c>
       <c r="F116" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G116" s="2"/>
@@ -4735,7 +4692,6 @@
         <v>6</v>
       </c>
       <c r="F118" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G118" s="19" t="s">
@@ -4762,7 +4718,6 @@
         <v>7</v>
       </c>
       <c r="F119" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G119" s="2"/>
@@ -4799,7 +4754,6 @@
         <v>6</v>
       </c>
       <c r="F121" s="8">
-        <f>Moorings!L2</f>
         <v>59.71823333333333</v>
       </c>
       <c r="G121" s="19" t="s">
@@ -4826,7 +4780,6 @@
         <v>7</v>
       </c>
       <c r="F122" s="8">
-        <f>Moorings!M2</f>
         <v>-39.353616666666667</v>
       </c>
       <c r="G122" s="2"/>
